--- a/biology/Botanique/Leucanthemum_adustum/Leucanthemum_adustum.xlsx
+++ b/biology/Botanique/Leucanthemum_adustum/Leucanthemum_adustum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Leucanthème brûlé, Leucanthème noirâtre, Marguerite brûlée
 Leucanthemum adustum, le Leucanthème brûlé, Leucanthème noirâtre ou encore Marguerite brûlée, est une espèce de plantes à fleurs de la famille des Asteraceae.
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (15 octobre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (15 octobre 2023) :
 Leucanthemum adustum subsp. adustum (W.D.J.Koch) Gremli
 Leucanthemum adustum subsp. margaritae (Gáyer ex Jáv.) Holub</t>
         </is>
@@ -544,12 +558,14 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Leucanthemum adustum (W.D.J.Koch) Gremli (d)[1].
-Le basionyme de ce taxon est : Chrysanthemum montanum adustum W.D.J.Koch[1]
-Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Leucanthème brûlé[2],[3], Leucanthème noirâtre[2], Marguerite brûlée[2],[3].
-Leucanthemum adustum a pour synonymes[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Leucanthemum adustum (W.D.J.Koch) Gremli (d).
+Le basionyme de ce taxon est : Chrysanthemum montanum adustum W.D.J.Koch
+Ce taxon porte en français les noms vernaculaires ou normalisés suivants : Leucanthème brûlé Leucanthème noirâtre, Marguerite brûlée,.
+Leucanthemum adustum a pour synonymes :
 Chrysanthemum adustum (W.D.J.Koch) Fritsch, 1897
 Chrysanthemum leucanthemum subsp. adustum (W.D.J.Koch) Guin., 1982
 Chrysanthemum leucanthemum subsp. saxicola (W.D.J.Koch) Hayek
